--- a/Patrocinio/Base de datos patrocinadores V2.xlsx
+++ b/Patrocinio/Base de datos patrocinadores V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Documents\GitHub\FTC-Into_The_Deep\Patrocinio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarasofia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941144FC-5B80-4B7D-A733-BCF60A806CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8226167C-5DB7-C74B-9233-12D64F193B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{BA4392A7-1F24-0648-8323-50C177A81C55}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="213">
   <si>
     <t xml:space="preserve">Juan Valdez </t>
   </si>
@@ -646,13 +646,43 @@
   </si>
   <si>
     <t>No nos respondieron nada específico (No sé si valga la pena volver a intentar)</t>
+  </si>
+  <si>
+    <t>Sara</t>
+  </si>
+  <si>
+    <t>Alfredo</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Simón</t>
+  </si>
+  <si>
+    <t>Respuesta final</t>
+  </si>
+  <si>
+    <t>No van a dar patrocinio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">​Formulario:   https://forms.office.com/r/Xma8jCfNnL </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -678,6 +708,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -723,11 +761,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -749,8 +788,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -768,9 +812,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -808,7 +852,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -914,7 +958,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1056,7 +1100,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1064,24 +1108,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{953E118B-2559-0648-84DD-D994D8679C8A}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="63" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="73.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="121.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="73.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="121.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="9" max="9" width="50.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>125</v>
       </c>
@@ -1106,8 +1151,11 @@
       <c r="H1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1129,8 +1177,11 @@
       <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" s="11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1138,7 +1189,7 @@
         <f>+B2+1</f>
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -1153,8 +1204,12 @@
       <c r="H3" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1177,8 +1232,9 @@
       <c r="G4" s="2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1198,8 +1254,9 @@
       <c r="G5" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1225,8 +1282,9 @@
       <c r="H6" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1249,8 +1307,9 @@
       <c r="G7" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1273,8 +1332,12 @@
       <c r="G8" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1298,8 +1361,10 @@
       <c r="H9" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1319,8 +1384,9 @@
       <c r="G10" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1343,8 +1409,12 @@
       <c r="H11" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1367,8 +1437,9 @@
       <c r="G12" s="2" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13">
         <f>+B11+1</f>
         <v>12</v>
@@ -1388,8 +1459,9 @@
       <c r="G13" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1409,8 +1481,9 @@
       <c r="G14" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1430,8 +1503,9 @@
       <c r="G15" s="2" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1451,8 +1525,11 @@
       <c r="G16" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J16" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1466,8 +1543,9 @@
       <c r="G17" s="2" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1487,8 +1565,9 @@
       <c r="G18" s="2" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1508,8 +1587,9 @@
       <c r="G19" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1520,8 +1600,9 @@
       <c r="G20" s="2" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1541,8 +1622,9 @@
       <c r="G21" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1559,8 +1641,9 @@
       <c r="G22" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1577,8 +1660,9 @@
       <c r="G23" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1593,8 +1677,9 @@
       <c r="G24" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1612,8 +1697,9 @@
       <c r="G25" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1630,8 +1716,9 @@
       <c r="G26" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1646,8 +1733,9 @@
       <c r="G27" s="2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1667,8 +1755,9 @@
       <c r="G28" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1683,8 +1772,9 @@
       <c r="G29" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1701,8 +1791,9 @@
       <c r="G30" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1722,8 +1813,11 @@
       <c r="G31" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J31" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1740,8 +1834,9 @@
       <c r="G32" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1756,8 +1851,9 @@
       <c r="G33" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1775,8 +1871,9 @@
       <c r="G34" s="2" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1793,8 +1890,9 @@
       <c r="G35" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1811,8 +1909,9 @@
       <c r="G36" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1832,8 +1931,9 @@
       <c r="G37" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1853,8 +1953,9 @@
       <c r="G38" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1869,8 +1970,9 @@
       <c r="G39" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1890,8 +1992,9 @@
       <c r="G40" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1911,8 +2014,9 @@
       <c r="G41" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1932,8 +2036,9 @@
       <c r="G42" s="2" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1948,8 +2053,9 @@
       <c r="G43" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1964,8 +2070,9 @@
       <c r="G44" s="2" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1982,8 +2089,9 @@
       <c r="G45" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1998,8 +2106,9 @@
       <c r="G46" s="2" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2016,8 +2125,11 @@
       <c r="G47" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J47" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2032,8 +2144,9 @@
       <c r="G48" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2053,8 +2166,9 @@
       <c r="G49" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2071,8 +2185,9 @@
       <c r="G50" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2087,8 +2202,9 @@
       <c r="G51" s="2" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2108,8 +2224,9 @@
       <c r="G52" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2126,8 +2243,9 @@
       <c r="G53" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J53" s="11"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2147,8 +2265,9 @@
       <c r="G54" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J54" s="11"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2168,8 +2287,9 @@
       <c r="G55" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J55" s="11"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2184,8 +2304,9 @@
       <c r="G56" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J56" s="11"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2200,8 +2321,9 @@
       <c r="G57" s="2" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J57" s="11"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2218,8 +2340,9 @@
       <c r="G58" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J58" s="11"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2234,8 +2357,9 @@
       <c r="G59" s="2" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J59" s="11"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2252,8 +2376,9 @@
       <c r="G60" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J60" s="11"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2270,8 +2395,9 @@
       <c r="G61" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J61" s="11"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2285,8 +2411,11 @@
       <c r="G62" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J62" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2300,8 +2429,9 @@
       <c r="G63" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J63" s="11"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2315,8 +2445,9 @@
       <c r="G64" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J64" s="11"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2330,8 +2461,9 @@
       <c r="G65" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J65" s="11"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2345,8 +2477,9 @@
       <c r="G66" s="2" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J66" s="11"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2363,8 +2496,9 @@
       <c r="G67" s="2" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J67" s="11"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B68">
         <f t="shared" ref="B68:B108" si="1">+B67+1</f>
         <v>67</v>
@@ -2384,8 +2518,9 @@
       <c r="G68" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J68" s="11"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2400,8 +2535,9 @@
       <c r="G69" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J69" s="11"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2416,8 +2552,9 @@
       <c r="G70" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J70" s="11"/>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2437,11 +2574,10 @@
       <c r="G71" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="H71" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H71" s="2"/>
+      <c r="J71" s="11"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2458,8 +2594,9 @@
         <v>177</v>
       </c>
       <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J72" s="11"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2473,8 +2610,9 @@
       <c r="G73" s="2" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J73" s="11"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2488,8 +2626,9 @@
       <c r="G74" s="2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J74" s="11"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2506,8 +2645,9 @@
       <c r="G75" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J75" s="11"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2518,8 +2658,9 @@
       <c r="G76" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J76" s="11"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2536,8 +2677,11 @@
       <c r="G77" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J77" s="11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2554,8 +2698,9 @@
       <c r="G78" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J78" s="11"/>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2572,8 +2717,9 @@
       <c r="G79" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J79" s="11"/>
+    </row>
+    <row r="80" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2590,8 +2736,9 @@
       <c r="G80" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J80" s="11"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2605,8 +2752,9 @@
       <c r="G81" s="2" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J81" s="11"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2626,8 +2774,9 @@
       <c r="G82" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J82" s="11"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2638,8 +2787,9 @@
       <c r="G83" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2653,8 +2803,9 @@
       <c r="G84" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J84" s="11"/>
+    </row>
+    <row r="85" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2674,8 +2825,9 @@
       <c r="H85" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J85" s="11"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2690,8 +2842,9 @@
       <c r="G86" s="2" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J86" s="11"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2705,8 +2858,9 @@
       <c r="G87" s="2" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>87</v>
       </c>
@@ -2725,8 +2879,9 @@
       <c r="H88" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J88" s="11"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B89">
         <f>+B88+1</f>
         <v>88</v>
@@ -2746,8 +2901,9 @@
       <c r="G89" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J89" s="11"/>
+    </row>
+    <row r="90" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B90">
         <f>+B89+1</f>
         <v>89</v>
@@ -2761,8 +2917,9 @@
       <c r="G90" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J90" s="11"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2773,8 +2930,9 @@
       <c r="G91" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J91" s="11"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2788,8 +2946,9 @@
       <c r="G92" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J92" s="11"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B93">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2809,8 +2968,11 @@
       <c r="G93" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J93" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B94">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2825,8 +2987,9 @@
       <c r="G94" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J94" s="11"/>
+    </row>
+    <row r="95" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B95">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2840,8 +3003,9 @@
       <c r="G95" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B96">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2856,8 +3020,9 @@
       <c r="G96" s="2" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J96" s="11"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B97">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2872,8 +3037,9 @@
       <c r="G97" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J97" s="11"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B98">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2890,8 +3056,9 @@
       <c r="G98" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J98" s="11"/>
+    </row>
+    <row r="99" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B99">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2909,8 +3076,9 @@
       <c r="G99" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J99" s="11"/>
+    </row>
+    <row r="100" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B100">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2927,8 +3095,9 @@
       <c r="G100" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J100" s="11"/>
+    </row>
+    <row r="101" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B101">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2942,8 +3111,9 @@
       <c r="G101" s="2" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J101" s="11"/>
+    </row>
+    <row r="102" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B102">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2960,8 +3130,9 @@
       <c r="G102" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J102" s="11"/>
+    </row>
+    <row r="103" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B103">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2976,8 +3147,9 @@
       <c r="G103" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J103" s="11"/>
+    </row>
+    <row r="104" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B104">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2992,8 +3164,9 @@
       <c r="G104" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J104" s="11"/>
+    </row>
+    <row r="105" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B105">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -3004,8 +3177,9 @@
       <c r="G105" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J105" s="11"/>
+    </row>
+    <row r="106" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B106">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -3025,8 +3199,9 @@
       <c r="G106" s="2" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J106" s="11"/>
+    </row>
+    <row r="107" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B107">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -3037,8 +3212,9 @@
       <c r="G107" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J107" s="11"/>
+    </row>
+    <row r="108" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B108">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -3052,8 +3228,9 @@
       <c r="E108" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J108" s="11"/>
+    </row>
+    <row r="109" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B109">
         <v>108</v>
       </c>
@@ -3067,7 +3244,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B110">
         <v>109</v>
       </c>
@@ -3078,7 +3255,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B111">
         <v>110</v>
       </c>
@@ -3089,7 +3266,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B112">
         <v>111</v>
       </c>
@@ -3105,7 +3282,19 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G109">
     <sortCondition ref="A1:A109"/>
   </sortState>
+  <mergeCells count="7">
+    <mergeCell ref="J2:J15"/>
+    <mergeCell ref="J16:J30"/>
+    <mergeCell ref="J31:J46"/>
+    <mergeCell ref="J47:J61"/>
+    <mergeCell ref="J62:J76"/>
+    <mergeCell ref="J77:J92"/>
+    <mergeCell ref="J93:J108"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I11" r:id="rId1" display="https://forms.office.com/r/Xma8jCfNnL" xr:uid="{71224E98-BBDB-3842-A745-C235248E418F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>